--- a/biology/Zoologie/Aptenodytes/Aptenodytes.xlsx
+++ b/biology/Zoologie/Aptenodytes/Aptenodytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aptenodytes est un genre de manchots de la famille des Spheniscidae comptant actuellement deux espèces vivantes et une fossile.
 </t>
@@ -513,14 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces actuelles
-D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international (ordre phylogénique) le genre Aptenodytes compte 2 espèces :
-Fossiles
-Il existe également une espèce fossile, le Manchot de Ridgen (A. ridgeni), dont on a retrouvé des fossiles datant de la fin du Pliocène, il y a environ trois millions d’années, en Nouvelle-Zélande[3]. Des études portant sur le comportement du manchot et sur ses caractéristiques génétiques ont conclu que le genre Aptenodytes est à la base de l’arbre phylogénétique des manchots[4]. Des ADN mitochondriaux et cellulaires ont permis d’estimer l’apparition de cette branche à environ 40 millions d’années avant notre ère[5].
-Taxons désuets
-Plusieurs espèces furent décrites dans le genre Aptenodytes, avant d'être déplacées dans la classification. Tel est le cas pour :
-Le Manchot pygmée (Eudyptula minor), de protonyme Aptenodytes minor[6]
-Le Manchot papou (Pygoscelis papua), de protonyme Aptenodytes papua[7]
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international (ordre phylogénique) le genre Aptenodytes compte 2 espèces :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aptenodytes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aptenodytes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe également une espèce fossile, le Manchot de Ridgen (A. ridgeni), dont on a retrouvé des fossiles datant de la fin du Pliocène, il y a environ trois millions d’années, en Nouvelle-Zélande. Des études portant sur le comportement du manchot et sur ses caractéristiques génétiques ont conclu que le genre Aptenodytes est à la base de l’arbre phylogénétique des manchots. Des ADN mitochondriaux et cellulaires ont permis d’estimer l’apparition de cette branche à environ 40 millions d’années avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aptenodytes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aptenodytes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons désuets</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plusieurs espèces furent décrites dans le genre Aptenodytes, avant d'être déplacées dans la classification. Tel est le cas pour :
+Le Manchot pygmée (Eudyptula minor), de protonyme Aptenodytes minor
+Le Manchot papou (Pygoscelis papua), de protonyme Aptenodytes papua
 On peut également rencontrer Aptenodytes taeniata, devenue une sous-espèce du Manchot papou</t>
         </is>
       </c>
